--- a/Code/ecuCanFrame.xlsx
+++ b/Code/ecuCanFrame.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C37AABA-96B4-4B68-9821-E134CE8E06B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABE257-3F99-404E-8355-BD9D1B78CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="495" windowWidth="33300" windowHeight="12135" activeTab="1" xr2:uid="{F3133396-7A9F-41FE-B528-FE0EBB026E28}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{0A5A1AD6-7398-4E43-894E-F77ADFA30A32}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
-    <sheet name="192" sheetId="3" r:id="rId2"/>
+    <sheet name="191" sheetId="3" r:id="rId2"/>
+    <sheet name="193" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>No.</t>
   </si>
@@ -97,6 +98,12 @@
   </si>
   <si>
     <t>CanTx_inf_eng_trq_tcm_rqst_fail_stat</t>
+  </si>
+  <si>
+    <t>inf_trq_crnk_shft</t>
+  </si>
+  <si>
+    <t>CanTx_inf_trq_crnk_shft</t>
   </si>
   <si>
     <t>inf_aps_pos_pt_validity</t>
@@ -193,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +208,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -536,8 +546,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45076D0-C831-4583-98BF-CB572516CCD9}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25131434-66D9-4863-92D8-5CA4D9283473}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,12 +578,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>193</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -584,10 +608,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FDF279-17E7-482A-A385-6B56F5022299}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7EE9C8-0C38-4685-AE28-352456283747}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -684,16 +708,16 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>-848</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>1199.5</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>-848</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -710,16 +734,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>-848</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>1199.5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>-848</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>15</v>
@@ -735,30 +759,265 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-848</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1199.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-848</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584D06AE-F5FF-48F4-B64F-28B7E6F2C5FD}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-848</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1199.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-848</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-848</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1199.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-848</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Code/ecuCanFrame.xlsx
+++ b/Code/ecuCanFrame.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_File\fujitsu\MBD\Share\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABE257-3F99-404E-8355-BD9D1B78CBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078F4CF-6020-4AB3-9EDF-CE2A8566C2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{0A5A1AD6-7398-4E43-894E-F77ADFA30A32}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{0A5A1AD6-7398-4E43-894E-F77ADFA30A32}"/>
   </bookViews>
   <sheets>
     <sheet name="TxNormal" sheetId="2" r:id="rId1"/>
     <sheet name="191" sheetId="3" r:id="rId2"/>
     <sheet name="193" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>No.</t>
   </si>
@@ -125,6 +124,10 @@
   </si>
   <si>
     <t>CanTx_inf_aps_pos_eff</t>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,15 +554,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -587,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -611,21 +614,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7EE9C8-0C38-4685-AE28-352456283747}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -651,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -677,7 +682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -694,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -703,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -729,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -755,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -781,7 +786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -817,23 +822,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584D06AE-F5FF-48F4-B64F-28B7E6F2C5FD}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,7 +864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -885,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -911,7 +916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -937,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -963,7 +968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -989,7 +994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
